--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5025" yWindow="2730" windowWidth="28110" windowHeight="15885" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="30" yWindow="2940" windowWidth="18360" windowHeight="15885" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M5"/>
+      <selection activeCell="L2" sqref="L2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -777,17 +777,17 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>{"appkey": "935a981af6aec3b9", "start": "武汉", "end": "杭州", "date": "2021-07-15"}</t>
+          <t>{"appkey": "935a981af6aec3b9", "start": "武汉", "end": "杭州", "date": "2022-03-15"}</t>
         </is>
       </c>
       <c r="K3" s="4" t="inlineStr">
         <is>
-          <t>{'status': 0, 'msg': 'ok', 'result': {'start': '武汉', 'end': '杭州', 'date': '2021-07-15', 'list': [{'trainno': 'D2198', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '06:43', 'arrivaltime': '11:16', 'costtime': '4小时33分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 0, 'sequenceno': 1, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '汉口', 'terminalstation': '宁波', 'departstationcode': 'HKN', 'terminalstationcode': 'NGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 295, 'numed': '无', 'priceyd': 471, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D3398', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '09:17', 'arrivaltime': '15:54', 'costtime': '6小时37分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 1, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '汉口', 'terminalstation': '杭州东', 'departstationcode': 'HKN', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 296, 'numed': '无', 'priceyd': 475, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G584', 'type': 'G', 'typename': '高铁', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '09:22', 'arrivaltime': '13:32', 'costtime': '4小时10分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 0, 'sequenceno': 1, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '武汉', 'terminalstation': '宁波', 'departstationcode': 'WHN', 'terminalstationcode': 'NGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 310, 'numed': '无', 'priceyd': 500, 'numyd': '无', 'pricesw': 937.5, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2190', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州', 'departuretime': '09:36', 'arrivaltime': '14:12', 'costtime': '4小时36分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 1, 'stationcode': 'HKN', 'endstationcode': 'HZH', 'departstation': '汉口', 'terminalstation': '杭州', 'departstationcode': 'HKN', 'terminalstationcode': 'HZH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 296, 'numed': '无', 'priceyd': 472, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D3395', 'type': 'D', 'typename': '动车', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '09:43', 'arrivaltime': '15:54', 'costtime': '6小时11分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': None, 'sequenceno': None, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '汉口', 'terminalstation': '杭州东', 'departstationcode': 'HKN', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 283, 'numed': '无', 'priceyd': 454, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G1796', 'type': 'G', 'typename': '高铁', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '10:24', 'arrivaltime': '14:31', 'costtime': '4小时7分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': None, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '武汉', 'terminalstation': '杭州东', 'departstationcode': 'WHN', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 309.5, 'numed': '无', 'priceyd': 499, 'numyd': '无', 'pricesw': 934, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2194', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州', 'departuretime': '11:03', 'arrivaltime': '15:32', 'costtime': '4小时29分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 6, 'stationcode': 'HKN', 'endstationcode': 'HZH', 'departstation': '宜昌东', 'terminalstation': '杭州', 'departstationcode': 'HAN', 'terminalstationcode': 'HZH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 296, 'numed': '无', 'priceyd': 472, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G1792', 'type': 'G', 'typename': '高铁', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '12:03', 'arrivaltime': '16:00', 'costtime': '3小时57分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 1, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '武汉', 'terminalstation': '杭州东', 'departstationcode': 'WHN', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 324, 'numed': '无', 'priceyd': 521, 'numyd': '无', 'pricesw': 978.5, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G592', 'type': 'G', 'typename': '高铁', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '12:12', 'arrivaltime': '17:01', 'costtime': '4小时49分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 0, 'sequenceno': 1, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '汉口', 'terminalstation': '温州南', 'departstationcode': 'HKN', 'terminalstationcode': 'VRH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 317.5, 'numed': '无', 'priceyd': 517, 'numyd': '无', 'pricesw': 971, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G2387', 'type': 'G', 'typename': '高铁', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '12:38', 'arrivaltime': '19:02', 'costtime': '6小时24分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 12, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '西安北', 'terminalstation': '杭州东', 'departstationcode': 'EAY', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 303.5, 'numed': '无', 'priceyd': 492, 'numyd': '无', 'pricesw': 922.5, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D658', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '13:57', 'arrivaltime': '18:45', 'costtime': '4小时48分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 0, 'sequenceno': 9, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '重庆北', 'terminalstation': '宁波', 'departstationcode': 'CUW', 'terminalstationcode': 'NGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 289, 'numed': '无', 'priceyd': 463, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G596', 'type': 'G', 'typename': '高铁', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '14:20', 'arrivaltime': '18:27', 'costtime': '4小时7分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 1, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '武汉', 'terminalstation': '杭州东', 'departstationcode': 'WHN', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 318, 'numed': '无', 'priceyd': 518, 'numyd': '无', 'pricesw': 974.5, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2248', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '15:25', 'arrivaltime': '20:11', 'costtime': '4小时46分', 'trainno12306': '', 'distance': 1617, 'day': 1, 'isend': 1, 'sequenceno': 8, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '重庆北', 'terminalstation': '杭州东', 'departstationcode': 'CUW', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 295, 'numed': '无', 'priceyd': 471, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2224', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '16:47', 'arrivaltime': '21:53', 'costtime': '5小时6分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 13, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '成都东', 'terminalstation': '杭州东', 'departstationcode': 'ICW', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 295, 'numed': '无', 'priceyd': 471, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K531', 'type': 'K', 'typename': '快速', 'station': '武昌', 'endstation': '杭州', 'departuretime': '17:35', 'arrivaltime': '05:04', 'costtime': '11小时29分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': None, 'sequenceno': None, 'stationcode': 'WCN', 'endstationcode': 'HZH', 'departstation': '成都东', 'terminalstation': '杭州', 'departstationcode': 'ICW', 'terminalstationcode': 'HZH', 'startdate': '20210715', 'canbuy': 'N', 'priceyz': 112, 'numyz': '无', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K1125', 'type': 'K', 'typename': '快速', 'station': '武昌', 'endstation': '杭州南', 'departuretime': '18:09', 'arrivaltime': '04:45', 'costtime': '10小时36分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': None, 'sequenceno': None, 'stationcode': 'WCN', 'endstationcode': 'XHH', 'departstation': '襄阳东', 'terminalstation': '上海南', 'departstationcode': 'EKN', 'terminalstationcode': 'SNH', 'startdate': '20210715', 'canbuy': 'N', 'priceyz': 112, 'numyz': '无', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2264', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '18:11', 'arrivaltime': '22:50', 'costtime': '4小时39分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 11, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '成都东', 'terminalstation': '杭州东', 'departstationcode': 'ICW', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 264, 'numed': '无', 'priceyd': 423, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K121', 'type': 'K', 'typename': '快速', 'station': '武昌', 'endstation': '杭州南', 'departuretime': '18:27', 'arrivaltime': '07:08', 'costtime': '12小时41分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 0, 'sequenceno': 9, 'stationcode': 'WCN', 'endstationcode': 'XHH', 'departstation': '十堰', 'terminalstation': '上海南', 'departstationcode': 'SNN', 'terminalstationcode': 'SNH', 'startdate': '20210715', 'canbuy': 'N', 'priceyz': 128.5, 'numyz': '无', 'priceyw1': 222.5, 'numyw1': '无', 'pricerw1': 348.5, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K254', 'type': 'K', 'typename': '快速', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '19:18', 'arrivaltime': '10:30', 'costtime': '15小时12分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 0, 'sequenceno': 5, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '荆门', 'terminalstation': '上海南', 'departstationcode': 'JMN', 'terminalstationcode': 'SNH', 'startdate': '20210715', 'canbuy': 'N', 'priceyz': 141.5, 'numyz': '无', 'priceyw1': 244.5, 'numyw1': '无', 'pricerw1': 381.5, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K254', 'type': 'K', 'typename': '快速', 'station': '汉口', 'endstation': '杭州南', 'departuretime': '19:18', 'arrivaltime': '10:10', 'costtime': '14小时52分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 0, 'sequenceno': 5, 'stationcode': 'HKN', 'endstationcode': 'XHH', 'departstation': '荆门', 'terminalstation': '上海南', 'departstationcode': 'JMN', 'terminalstationcode': 'SNH', 'startdate': '20210715', 'canbuy': 'N', 'priceyz': 138.5, 'numyz': '无', 'priceyw1': 238.5, 'numyw1': '无', 'pricerw1': 372.5, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K353', 'type': 'K', 'typename': '快速', 'station': '武昌', 'endstation': '杭州南', 'departuretime': '19:39', 'arrivaltime': '08:31', 'costtime': '12小时52分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 0, 'sequenceno': 11, 'stationcode': 'WCN', 'endstationcode': 'XHH', 'departstation': '成都', 'terminalstation': '上海南', 'departstationcode': 'CDW', 'terminalstationcode': 'SNH', 'startdate': '20210715', 'canbuy': 'N', 'priceyz': 128.5, 'numyz': '无', 'priceyw1': 222.5, 'numyw1': '无', 'pricerw1': 348.5, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'Z45', 'type': 'Z', 'typename': '直达特快', 'station': '武昌', 'endstation': '杭州', 'departuretime': '22:23', 'arrivaltime': '06:58', 'costtime': '8小时35分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 1, 'sequenceno': 1, 'stationcode': 'WCN', 'endstationcode': 'HZH', 'departstation': '武昌', 'terminalstation': '杭州', 'departstationcode': 'WCN', 'terminalstationcode': 'HZH', 'startdate': '20210715', 'canbuy': 'N', 'priceyz': 112, 'numyz': '无', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'Z255', 'type': 'Z', 'typename': '直达特快', 'station': '武昌', 'endstation': '杭州南', 'departuretime': '22:54', 'arrivaltime': '06:45', 'costtime': '7小时51分', 'trainno12306': '', 'distance': 918, 'day': 2, 'isend': 0, 'sequenceno': 4, 'stationcode': 'WCN', 'endstationcode': 'XHH', 'departstation': '重庆北', 'terminalstation': '上海南', 'departstationcode': 'CUW', 'terminalstationcode': 'SNH', 'startdate': '20210715', 'canbuy': 'N', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}]}}</t>
+          <t>{'status': 0, 'msg': 'ok', 'result': {'start': '武汉', 'end': '杭州', 'date': '2022-03-15', 'list': [{'trainno': 'G584', 'type': 'G', 'typename': '高铁', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '09:22', 'arrivaltime': '13:32', 'costtime': '4小时10分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 0, 'sequenceno': 1, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '武汉', 'terminalstation': '宁波', 'departstationcode': 'WHN', 'terminalstationcode': 'NGH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 344, 'numed': '无', 'priceyd': 554, 'numyd': '无', 'pricesw': 1039.5, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G1796', 'type': 'G', 'typename': '高铁', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '10:14', 'arrivaltime': '14:31', 'costtime': '4小时17分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': None, 'sequenceno': None, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '武汉', 'terminalstation': '杭州东', 'departstationcode': 'WHN', 'terminalstationcode': 'HGH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 343.5, 'numed': '无', 'priceyd': 553, 'numyd': '无', 'pricesw': 1036, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2194', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州', 'departuretime': '11:03', 'arrivaltime': '15:32', 'costtime': '4小时29分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 6, 'stationcode': 'HKN', 'endstationcode': 'HZH', 'departstation': '宜昌东', 'terminalstation': '杭州', 'departstationcode': 'HAN', 'terminalstationcode': 'HZH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 296, 'numed': '无', 'priceyd': 472, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G1792', 'type': 'G', 'typename': '高铁', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '12:03', 'arrivaltime': '16:02', 'costtime': '3小时59分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 1, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '武汉', 'terminalstation': '杭州东', 'departstationcode': 'WHN', 'terminalstationcode': 'HGH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 344, 'numed': '无', 'priceyd': 554, 'numyd': '无', 'pricesw': 1039.5, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G592', 'type': 'G', 'typename': '高铁', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '12:12', 'arrivaltime': '17:00', 'costtime': '4小时48分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 0, 'sequenceno': 1, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '汉口', 'terminalstation': '温州南', 'departstationcode': 'HKN', 'terminalstationcode': 'VRH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 317.5, 'numed': '无', 'priceyd': 517, 'numyd': '无', 'pricesw': 971, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G2387', 'type': 'G', 'typename': '高铁', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '12:38', 'arrivaltime': '18:55', 'costtime': '6小时17分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 12, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '西安北', 'terminalstation': '杭州东', 'departstationcode': 'EAY', 'terminalstationcode': 'HGH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 303.5, 'numed': '无', 'priceyd': 492, 'numyd': '无', 'pricesw': 922.5, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D658', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '13:58', 'arrivaltime': '18:44', 'costtime': '4小时46分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 0, 'sequenceno': 10, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '重庆北', 'terminalstation': '宁波', 'departstationcode': 'CUW', 'terminalstationcode': 'NGH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 306, 'numed': '无', 'priceyd': 490, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2248', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '15:25', 'arrivaltime': '20:01', 'costtime': '4小时36分', 'trainno12306': '', 'distance': 1617, 'day': 1, 'isend': 1, 'sequenceno': 8, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '重庆北', 'terminalstation': '杭州东', 'departstationcode': 'CUW', 'terminalstationcode': 'HGH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 295, 'numed': '无', 'priceyd': 471, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K531', 'type': 'K', 'typename': '快速', 'station': '武昌', 'endstation': '杭州', 'departuretime': '17:35', 'arrivaltime': '05:04', 'costtime': '11小时29分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': None, 'sequenceno': None, 'stationcode': 'WCN', 'endstationcode': 'HZH', 'departstation': '成都东', 'terminalstation': '杭州', 'departstationcode': 'ICW', 'terminalstationcode': 'HZH', 'startdate': '20220315', 'canbuy': 'N', 'priceyz': 112, 'numyz': '无', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K1125', 'type': 'K', 'typename': '快速', 'station': '武昌', 'endstation': '杭州南', 'departuretime': '18:09', 'arrivaltime': '04:45', 'costtime': '10小时36分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': None, 'sequenceno': None, 'stationcode': 'WCN', 'endstationcode': 'XHH', 'departstation': '襄阳东', 'terminalstation': '上海南', 'departstationcode': 'EKN', 'terminalstationcode': 'SNH', 'startdate': '20220315', 'canbuy': 'N', 'priceyz': 112, 'numyz': '无', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2264', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '18:11', 'arrivaltime': '22:50', 'costtime': '4小时39分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': None, 'sequenceno': None, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '成都东', 'terminalstation': '杭州东', 'departstationcode': 'ICW', 'terminalstationcode': 'HGH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 289, 'numed': '无', 'priceyd': 463, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K121', 'type': 'K', 'typename': '快速', 'station': '武昌', 'endstation': '杭州南', 'departuretime': '18:17', 'arrivaltime': '07:08', 'costtime': '12小时51分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 0, 'sequenceno': 9, 'stationcode': 'WCN', 'endstationcode': 'XHH', 'departstation': '十堰', 'terminalstation': '上海南', 'departstationcode': 'SNN', 'terminalstationcode': 'SNH', 'startdate': '20220315', 'canbuy': 'N', 'priceyz': 128.5, 'numyz': '无', 'priceyw1': 222.5, 'numyw1': '无', 'pricerw1': 348.5, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K254', 'type': 'K', 'typename': '快速', 'station': '汉口', 'endstation': '杭州南', 'departuretime': '19:09', 'arrivaltime': '10:10', 'costtime': '15小时1分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 0, 'sequenceno': 5, 'stationcode': 'HKN', 'endstationcode': 'XHH', 'departstation': '荆门', 'terminalstation': '上海南', 'departstationcode': 'JMN', 'terminalstationcode': 'SNH', 'startdate': '20220315', 'canbuy': 'N', 'priceyz': 138.5, 'numyz': '无', 'priceyw1': 238.5, 'numyw1': '无', 'pricerw1': 372.5, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'Z45', 'type': 'Z', 'typename': '直达特快', 'station': '武昌', 'endstation': '杭州', 'departuretime': '22:23', 'arrivaltime': '06:58', 'costtime': '8小时35分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 1, 'sequenceno': 1, 'stationcode': 'WCN', 'endstationcode': 'HZH', 'departstation': '武昌', 'terminalstation': '杭州', 'departstationcode': 'WCN', 'terminalstationcode': 'HZH', 'startdate': '20220315', 'canbuy': 'N', 'priceyz': 112, 'numyz': '无', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'Z255', 'type': 'Z', 'typename': '直达特快', 'station': '武昌', 'endstation': '杭州南', 'departuretime': '22:54', 'arrivaltime': '06:45', 'costtime': '7小时51分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': None, 'sequenceno': None, 'stationcode': 'WCN', 'endstationcode': 'XHH', 'departstation': '重庆北', 'terminalstation': '上海南', 'departstationcode': 'CUW', 'terminalstationcode': 'SNH', 'startdate': '20220315', 'canbuy': 'N', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}]}}</t>
         </is>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
-          <t>{'status': 0, 'msg': 'ok', 'result': {'start': '武汉', 'end': '杭州', 'date': '2021-07-15', 'list': [{'trainno': 'D2198', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '06:43', 'arrivaltime': '11:16', 'costtime': '4小时33分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 0, 'sequenceno': 1, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '汉口', 'terminalstation': '宁波', 'departstationcode': 'HKN', 'terminalstationcode': 'NGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 295, 'numed': '无', 'priceyd': 471, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D3398', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '09:17', 'arrivaltime': '15:54', 'costtime': '6小时37分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 1, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '汉口', 'terminalstation': '杭州东', 'departstationcode': 'HKN', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 296, 'numed': '无', 'priceyd': 475, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G584', 'type': 'G', 'typename': '高铁', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '09:22', 'arrivaltime': '13:32', 'costtime': '4小时10分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 0, 'sequenceno': 1, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '武汉', 'terminalstation': '宁波', 'departstationcode': 'WHN', 'terminalstationcode': 'NGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 310, 'numed': '无', 'priceyd': 500, 'numyd': '无', 'pricesw': 937.5, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2190', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州', 'departuretime': '09:36', 'arrivaltime': '14:12', 'costtime': '4小时36分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 1, 'stationcode': 'HKN', 'endstationcode': 'HZH', 'departstation': '汉口', 'terminalstation': '杭州', 'departstationcode': 'HKN', 'terminalstationcode': 'HZH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 296, 'numed': '无', 'priceyd': 472, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D3395', 'type': 'D', 'typename': '动车', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '09:43', 'arrivaltime': '15:54', 'costtime': '6小时11分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': None, 'sequenceno': None, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '汉口', 'terminalstation': '杭州东', 'departstationcode': 'HKN', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 283, 'numed': '无', 'priceyd': 454, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G1796', 'type': 'G', 'typename': '高铁', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '10:24', 'arrivaltime': '14:31', 'costtime': '4小时7分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': None, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '武汉', 'terminalstation': '杭州东', 'departstationcode': 'WHN', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 309.5, 'numed': '无', 'priceyd': 499, 'numyd': '无', 'pricesw': 934, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2194', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州', 'departuretime': '11:03', 'arrivaltime': '15:32', 'costtime': '4小时29分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 6, 'stationcode': 'HKN', 'endstationcode': 'HZH', 'departstation': '宜昌东', 'terminalstation': '杭州', 'departstationcode': 'HAN', 'terminalstationcode': 'HZH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 296, 'numed': '无', 'priceyd': 472, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G1792', 'type': 'G', 'typename': '高铁', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '12:03', 'arrivaltime': '16:00', 'costtime': '3小时57分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 1, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '武汉', 'terminalstation': '杭州东', 'departstationcode': 'WHN', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 324, 'numed': '无', 'priceyd': 521, 'numyd': '无', 'pricesw': 978.5, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G592', 'type': 'G', 'typename': '高铁', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '12:12', 'arrivaltime': '17:01', 'costtime': '4小时49分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 0, 'sequenceno': 1, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '汉口', 'terminalstation': '温州南', 'departstationcode': 'HKN', 'terminalstationcode': 'VRH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 317.5, 'numed': '无', 'priceyd': 517, 'numyd': '无', 'pricesw': 971, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G2387', 'type': 'G', 'typename': '高铁', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '12:38', 'arrivaltime': '19:02', 'costtime': '6小时24分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 12, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '西安北', 'terminalstation': '杭州东', 'departstationcode': 'EAY', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 303.5, 'numed': '无', 'priceyd': 492, 'numyd': '无', 'pricesw': 922.5, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D658', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '13:57', 'arrivaltime': '18:45', 'costtime': '4小时48分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 0, 'sequenceno': 9, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '重庆北', 'terminalstation': '宁波', 'departstationcode': 'CUW', 'terminalstationcode': 'NGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 289, 'numed': '无', 'priceyd': 463, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G596', 'type': 'G', 'typename': '高铁', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '14:20', 'arrivaltime': '18:27', 'costtime': '4小时7分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 1, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '武汉', 'terminalstation': '杭州东', 'departstationcode': 'WHN', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 318, 'numed': '无', 'priceyd': 518, 'numyd': '无', 'pricesw': 974.5, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2248', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '15:25', 'arrivaltime': '20:11', 'costtime': '4小时46分', 'trainno12306': '', 'distance': 1617, 'day': 1, 'isend': 1, 'sequenceno': 8, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '重庆北', 'terminalstation': '杭州东', 'departstationcode': 'CUW', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 295, 'numed': '无', 'priceyd': 471, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2224', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '16:47', 'arrivaltime': '21:53', 'costtime': '5小时6分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 13, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '成都东', 'terminalstation': '杭州东', 'departstationcode': 'ICW', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 295, 'numed': '无', 'priceyd': 471, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K531', 'type': 'K', 'typename': '快速', 'station': '武昌', 'endstation': '杭州', 'departuretime': '17:35', 'arrivaltime': '05:04', 'costtime': '11小时29分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': None, 'sequenceno': None, 'stationcode': 'WCN', 'endstationcode': 'HZH', 'departstation': '成都东', 'terminalstation': '杭州', 'departstationcode': 'ICW', 'terminalstationcode': 'HZH', 'startdate': '20210715', 'canbuy': 'N', 'priceyz': 112, 'numyz': '无', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K1125', 'type': 'K', 'typename': '快速', 'station': '武昌', 'endstation': '杭州南', 'departuretime': '18:09', 'arrivaltime': '04:45', 'costtime': '10小时36分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': None, 'sequenceno': None, 'stationcode': 'WCN', 'endstationcode': 'XHH', 'departstation': '襄阳东', 'terminalstation': '上海南', 'departstationcode': 'EKN', 'terminalstationcode': 'SNH', 'startdate': '20210715', 'canbuy': 'N', 'priceyz': 112, 'numyz': '无', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2264', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '18:11', 'arrivaltime': '22:50', 'costtime': '4小时39分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 11, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '成都东', 'terminalstation': '杭州东', 'departstationcode': 'ICW', 'terminalstationcode': 'HGH', 'startdate': '20210715', 'canbuy': 'N', 'priceed': 264, 'numed': '无', 'priceyd': 423, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K121', 'type': 'K', 'typename': '快速', 'station': '武昌', 'endstation': '杭州南', 'departuretime': '18:27', 'arrivaltime': '07:08', 'costtime': '12小时41分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 0, 'sequenceno': 9, 'stationcode': 'WCN', 'endstationcode': 'XHH', 'departstation': '十堰', 'terminalstation': '上海南', 'departstationcode': 'SNN', 'terminalstationcode': 'SNH', 'startdate': '20210715', 'canbuy': 'N', 'priceyz': 128.5, 'numyz': '无', 'priceyw1': 222.5, 'numyw1': '无', 'pricerw1': 348.5, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K254', 'type': 'K', 'typename': '快速', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '19:18', 'arrivaltime': '10:30', 'costtime': '15小时12分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 0, 'sequenceno': 5, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '荆门', 'terminalstation': '上海南', 'departstationcode': 'JMN', 'terminalstationcode': 'SNH', 'startdate': '20210715', 'canbuy': 'N', 'priceyz': 141.5, 'numyz': '无', 'priceyw1': 244.5, 'numyw1': '无', 'pricerw1': 381.5, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K254', 'type': 'K', 'typename': '快速', 'station': '汉口', 'endstation': '杭州南', 'departuretime': '19:18', 'arrivaltime': '10:10', 'costtime': '14小时52分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 0, 'sequenceno': 5, 'stationcode': 'HKN', 'endstationcode': 'XHH', 'departstation': '荆门', 'terminalstation': '上海南', 'departstationcode': 'JMN', 'terminalstationcode': 'SNH', 'startdate': '20210715', 'canbuy': 'N', 'priceyz': 138.5, 'numyz': '无', 'priceyw1': 238.5, 'numyw1': '无', 'pricerw1': 372.5, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K353', 'type': 'K', 'typename': '快速', 'station': '武昌', 'endstation': '杭州南', 'departuretime': '19:39', 'arrivaltime': '08:31', 'costtime': '12小时52分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 0, 'sequenceno': 11, 'stationcode': 'WCN', 'endstationcode': 'XHH', 'departstation': '成都', 'terminalstation': '上海南', 'departstationcode': 'CDW', 'terminalstationcode': 'SNH', 'startdate': '20210715', 'canbuy': 'N', 'priceyz': 128.5, 'numyz': '无', 'priceyw1': 222.5, 'numyw1': '无', 'pricerw1': 348.5, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'Z45', 'type': 'Z', 'typename': '直达特快', 'station': '武昌', 'endstation': '杭州', 'departuretime': '22:23', 'arrivaltime': '06:58', 'costtime': '8小时35分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 1, 'sequenceno': 1, 'stationcode': 'WCN', 'endstationcode': 'HZH', 'departstation': '武昌', 'terminalstation': '杭州', 'departstationcode': 'WCN', 'terminalstationcode': 'HZH', 'startdate': '20210715', 'canbuy': 'N', 'priceyz': 112, 'numyz': '无', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'Z255', 'type': 'Z', 'typename': '直达特快', 'station': '武昌', 'endstation': '杭州南', 'departuretime': '22:54', 'arrivaltime': '06:45', 'costtime': '7小时51分', 'trainno12306': '', 'distance': 918, 'day': 2, 'isend': 0, 'sequenceno': 4, 'stationcode': 'WCN', 'endstationcode': 'XHH', 'departstation': '重庆北', 'terminalstation': '上海南', 'departstationcode': 'CUW', 'terminalstationcode': 'SNH', 'startdate': '20210715', 'canbuy': 'N', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}]}}</t>
+          <t>{'status': 0, 'msg': 'ok', 'result': {'start': '武汉', 'end': '杭州', 'date': '2022-03-15', 'list': [{'trainno': 'G584', 'type': 'G', 'typename': '高铁', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '09:22', 'arrivaltime': '13:32', 'costtime': '4小时10分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 0, 'sequenceno': 1, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '武汉', 'terminalstation': '宁波', 'departstationcode': 'WHN', 'terminalstationcode': 'NGH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 344, 'numed': '无', 'priceyd': 554, 'numyd': '无', 'pricesw': 1039.5, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G1796', 'type': 'G', 'typename': '高铁', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '10:14', 'arrivaltime': '14:31', 'costtime': '4小时17分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': None, 'sequenceno': None, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '武汉', 'terminalstation': '杭州东', 'departstationcode': 'WHN', 'terminalstationcode': 'HGH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 343.5, 'numed': '无', 'priceyd': 553, 'numyd': '无', 'pricesw': 1036, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2194', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州', 'departuretime': '11:03', 'arrivaltime': '15:32', 'costtime': '4小时29分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 6, 'stationcode': 'HKN', 'endstationcode': 'HZH', 'departstation': '宜昌东', 'terminalstation': '杭州', 'departstationcode': 'HAN', 'terminalstationcode': 'HZH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 296, 'numed': '无', 'priceyd': 472, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G1792', 'type': 'G', 'typename': '高铁', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '12:03', 'arrivaltime': '16:02', 'costtime': '3小时59分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 1, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '武汉', 'terminalstation': '杭州东', 'departstationcode': 'WHN', 'terminalstationcode': 'HGH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 344, 'numed': '无', 'priceyd': 554, 'numyd': '无', 'pricesw': 1039.5, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G592', 'type': 'G', 'typename': '高铁', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '12:12', 'arrivaltime': '17:00', 'costtime': '4小时48分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 0, 'sequenceno': 1, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '汉口', 'terminalstation': '温州南', 'departstationcode': 'HKN', 'terminalstationcode': 'VRH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 317.5, 'numed': '无', 'priceyd': 517, 'numyd': '无', 'pricesw': 971, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'G2387', 'type': 'G', 'typename': '高铁', 'station': '武汉', 'endstation': '杭州东', 'departuretime': '12:38', 'arrivaltime': '18:55', 'costtime': '6小时17分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 1, 'sequenceno': 12, 'stationcode': 'WHN', 'endstationcode': 'HGH', 'departstation': '西安北', 'terminalstation': '杭州东', 'departstationcode': 'EAY', 'terminalstationcode': 'HGH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 303.5, 'numed': '无', 'priceyd': 492, 'numyd': '无', 'pricesw': 922.5, 'numsw': '无', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D658', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '13:58', 'arrivaltime': '18:44', 'costtime': '4小时46分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': 0, 'sequenceno': 10, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '重庆北', 'terminalstation': '宁波', 'departstationcode': 'CUW', 'terminalstationcode': 'NGH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 306, 'numed': '无', 'priceyd': 490, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2248', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '15:25', 'arrivaltime': '20:01', 'costtime': '4小时36分', 'trainno12306': '', 'distance': 1617, 'day': 1, 'isend': 1, 'sequenceno': 8, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '重庆北', 'terminalstation': '杭州东', 'departstationcode': 'CUW', 'terminalstationcode': 'HGH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 295, 'numed': '无', 'priceyd': 471, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K531', 'type': 'K', 'typename': '快速', 'station': '武昌', 'endstation': '杭州', 'departuretime': '17:35', 'arrivaltime': '05:04', 'costtime': '11小时29分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': None, 'sequenceno': None, 'stationcode': 'WCN', 'endstationcode': 'HZH', 'departstation': '成都东', 'terminalstation': '杭州', 'departstationcode': 'ICW', 'terminalstationcode': 'HZH', 'startdate': '20220315', 'canbuy': 'N', 'priceyz': 112, 'numyz': '无', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K1125', 'type': 'K', 'typename': '快速', 'station': '武昌', 'endstation': '杭州南', 'departuretime': '18:09', 'arrivaltime': '04:45', 'costtime': '10小时36分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': None, 'sequenceno': None, 'stationcode': 'WCN', 'endstationcode': 'XHH', 'departstation': '襄阳东', 'terminalstation': '上海南', 'departstationcode': 'EKN', 'terminalstationcode': 'SNH', 'startdate': '20220315', 'canbuy': 'N', 'priceyz': 112, 'numyz': '无', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'D2264', 'type': 'D', 'typename': '动车', 'station': '汉口', 'endstation': '杭州东', 'departuretime': '18:11', 'arrivaltime': '22:50', 'costtime': '4小时39分', 'trainno12306': '', 'distance': 0, 'day': 1, 'isend': None, 'sequenceno': None, 'stationcode': 'HKN', 'endstationcode': 'HGH', 'departstation': '成都东', 'terminalstation': '杭州东', 'departstationcode': 'ICW', 'terminalstationcode': 'HGH', 'startdate': '20220315', 'canbuy': 'N', 'priceed': 289, 'numed': '无', 'priceyd': 463, 'numyd': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw1': '-', 'numrw1': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw1': '-', 'numyw1': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K121', 'type': 'K', 'typename': '快速', 'station': '武昌', 'endstation': '杭州南', 'departuretime': '18:17', 'arrivaltime': '07:08', 'costtime': '12小时51分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 0, 'sequenceno': 9, 'stationcode': 'WCN', 'endstationcode': 'XHH', 'departstation': '十堰', 'terminalstation': '上海南', 'departstationcode': 'SNN', 'terminalstationcode': 'SNH', 'startdate': '20220315', 'canbuy': 'N', 'priceyz': 128.5, 'numyz': '无', 'priceyw1': 222.5, 'numyw1': '无', 'pricerw1': 348.5, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'K254', 'type': 'K', 'typename': '快速', 'station': '汉口', 'endstation': '杭州南', 'departuretime': '19:09', 'arrivaltime': '10:10', 'costtime': '15小时1分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 0, 'sequenceno': 5, 'stationcode': 'HKN', 'endstationcode': 'XHH', 'departstation': '荆门', 'terminalstation': '上海南', 'departstationcode': 'JMN', 'terminalstationcode': 'SNH', 'startdate': '20220315', 'canbuy': 'N', 'priceyz': 138.5, 'numyz': '无', 'priceyw1': 238.5, 'numyw1': '无', 'pricerw1': 372.5, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'Z45', 'type': 'Z', 'typename': '直达特快', 'station': '武昌', 'endstation': '杭州', 'departuretime': '22:23', 'arrivaltime': '06:58', 'costtime': '8小时35分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': 1, 'sequenceno': 1, 'stationcode': 'WCN', 'endstationcode': 'HZH', 'departstation': '武昌', 'terminalstation': '杭州', 'departstationcode': 'WCN', 'terminalstationcode': 'HZH', 'startdate': '20220315', 'canbuy': 'N', 'priceyz': 112, 'numyz': '无', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}, {'trainno': 'Z255', 'type': 'Z', 'typename': '直达特快', 'station': '武昌', 'endstation': '杭州南', 'departuretime': '22:54', 'arrivaltime': '06:45', 'costtime': '7小时51分', 'trainno12306': '', 'distance': 0, 'day': 2, 'isend': None, 'sequenceno': None, 'stationcode': 'WCN', 'endstationcode': 'XHH', 'departstation': '重庆北', 'terminalstation': '上海南', 'departstationcode': 'CUW', 'terminalstationcode': 'SNH', 'startdate': '20220315', 'canbuy': 'N', 'priceyw1': 194, 'numyw1': '无', 'pricerw1': 301, 'numrw1': '无', 'pricesw': '-', 'numsw': '-', 'pricetd': '-', 'numtd': '-', 'pricerz': '-', 'numrz': '-', 'priceyz': '-', 'numyz': '-', 'pricegr1': '-', 'numgr1': '-', 'pricegr2': '-', 'numgr2': '-', 'pricerw2': '-', 'numrw2': '-', 'priceyw2': '-', 'numyw2': '-', 'priceyw3': '-', 'numyw3': '-', 'priceyd': '-', 'numyd': '-', 'priceed': '-', 'numed': '-', 'pricewz': '-', 'numwz': '-', 'priceqt': '-', 'numqt': '-', 'pricedw': '-', 'numdw': '-', 'pricedw1': '-', 'numdw1': '-'}]}}</t>
         </is>
       </c>
       <c r="M3" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>{'cityid': '101300301', 'city': '柳州', 'cityEn': 'liuzhou', 'country': '中国', 'countryEn': 'China', 'update_time': '2021-06-29 12:29:30', 'data': [{'day': '29日（星期二）', 'date': '2021-06-29', 'week': '星期二', 'wea': '大雨', 'wea_img': 'yu', 'wea_day': '大雨', 'wea_day_img': 'yu', 'wea_night': '大雨', 'wea_night_img': 'yu', 'tem': '24℃', 'tem1': '31℃', 'tem2': '24℃', 'humidity': '99%', 'visibility': '30km', 'pressure': '969', 'win': ['南风', '南风'], 'win_speed': '&lt;3级', 'win_meter': '0km/h', 'sunrise': '05:56', 'sunset': '19:34', 'air': '15', 'air_level': '优', 'air_tips': '空气很好，可以外出活动，呼吸新鲜空气，拥抱大自然！', 'alarm': {'alarm_type': '', 'alarm_level': '', 'alarm_content': ''}, 'hours': [{'hours': '12时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '29', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '13时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '30', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '14时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '30', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '15时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '31', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '16时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '31', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '17时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '24', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '18时', 'wea': '阴', 'wea_img': 'yin', 'tem': '26', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '19时', 'wea': '阴', 'wea_img': 'yin', 'tem': '26', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '20时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '26', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '21时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '27', 'win': '南风', 'win_speed': '3-4级'}, {'hours': '22时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '28', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '23时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '28', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '00时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '27', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '01时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '27', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '02时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '27', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '03时', 'wea': '阴', 'wea_img': 'yin', 'tem': '26', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '04时', 'wea': '阴', 'wea_img': 'yin', 'tem': '26', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '05时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '26', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '06时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '26', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '07时', 'wea': '阴', 'wea_img': 'yin', 'tem': '26', 'win': '南风', 'win_speed': '&lt;3级'}], 'index': [{'title': '紫外线指数', 'level': '强', 'desc': '涂擦SPF大于15、PA+防晒护肤品。'}, {'title': '减肥指数', 'level': '一颗星', 'desc': '天气有点热，运动多补水。'}, {'title': '血糖指数', 'level': '易波动', 'desc': '血糖易波动，注意监测。'}, {'title': '穿衣指数', 'level': '炎热', 'desc': '建议穿短衫、短裤等清凉夏季服装。'}, {'title': '洗车指数', 'level': '较适宜', 'desc': '无雨且风力较小，易保持清洁度。'}, {'title': '空气污染扩散指数', 'level': '中', 'desc': '易感人群应适当减少室外活动。'}]}, {'day': '30日（星期三）', 'date': '2021-06-30', 'week': '星期三', 'wea': '中雨', 'wea_img': 'yu', 'wea_day': '中雨', 'wea_day_img': 'yu', 'wea_night': '中雨', 'wea_night_img': 'yu', 'tem': '31℃', 'tem1': '31℃', 'tem2': '25℃', 'humidity': '', 'visibility': '', 'pressure': '', 'win': ['南风', '南风'], 'win_speed': '&lt;3级', 'win_meter': '', 'sunrise': '05:57', 'sunset': '19:34', 'air': '14', 'air_level': '优', 'air_tips': '', 'alarm': {'alarm_type': '', 'alarm_level': '', 'alarm_content': ''}, 'hours': [{'hours': '08时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '26', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '09时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '27', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '10时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '28', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '11时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '29', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '12时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '29', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '13时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '29', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '14时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '29', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '15时', 'wea': '阴', 'wea_img': 'yin', 'tem': '30', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '16时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '30', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '17时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '30', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '18时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '30', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '19时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '29', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '20时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '29', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '21时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '28', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '22时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '28', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '23时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '28', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '00时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '28', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '01时', 'wea': '阴', 'wea_img': 'yin', 'tem': '27', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '02时', 'wea': '阴', 'wea_img': 'yin', 'tem': '27', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '03时', 'wea': '阴', 'wea_img': 'yin', 'tem': '27', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '04时', 'wea': '阴', 'wea_img': 'yin', 'tem': '27', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '05时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '27', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '06时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '26', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '07时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '25', 'win': '西南风', 'win_speed': '&lt;3级'}], 'index': [{'title': '紫外线指数', 'level': '最弱', 'desc': '辐射弱，涂擦SPF8-12防晒护肤品。'}, {'title': '减肥指数', 'level': '一颗星', 'desc': '天气有点热，运动多补水。'}, {'title': '血糖指数', 'level': '易波动', 'desc': '血糖易波动，注意监测。'}, {'title': '穿衣指数', 'level': '炎热', 'desc': '建议穿短衫、短裤等清凉夏季服装。'}, {'title': '洗车指数', 'level': '不宜', 'desc': '有雨，雨水和泥水会弄脏爱车。'}, {'title': '空气污染扩散指数', 'level': '较差', 'desc': '气象条件较不利于空气污染物扩散。。'}]}, {'day': '01日（星期四）', 'date': '2021-07-01', 'week': '星期四', 'wea': '中雨', 'wea_img': 'yu', 'wea_day': '中雨', 'wea_day_img': 'yu', 'wea_night': '中雨', 'wea_night_img': 'yu', 'tem': '31℃', 'tem1': '31℃', 'tem2': '26℃', 'humidity': '', 'visibility': '', 'pressure': '', 'win': ['南风', '南风'], 'win_speed': '&lt;3级', 'win_meter': '', 'sunrise': '05:57', 'sunset': '19:34', 'air': '20', 'air_level': '优', 'air_tips': '', 'alarm': {'alarm_type': '', 'alarm_level': '', 'alarm_content': ''}, 'hours': [{'hours': '08时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '25', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '09时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '26', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '10时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '26', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '11时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '26', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '12时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '29', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '13时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '29', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '14时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '30', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '15时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '30', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '16时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '30', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '17时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '30', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '18时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '29', 'win': '东风', 'win_speed': '&lt;3级'}, {'hours': '19时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '29', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '20时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '29', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '21时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '28', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '22时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '28', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '23时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '27', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '00时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '27', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '01时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '26', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '02时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '26', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '03时', 'wea': '阴', 'wea_img': 'yin', 'tem': '26', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '04时', 'wea': '阴', 'wea_img': 'yin', 'tem': '26', 'win': '南风', 'win_speed': '3-4级'}, {'hours': '05时', 'wea': '阴', 'wea_img': 'yin', 'tem': '26', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '06时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '27', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '07时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '27', 'win': '南风', 'win_speed': '&lt;3级'}], 'index': [{'title': '紫外线指数', 'level': '最弱', 'desc': '辐射弱，涂擦SPF8-12防晒护肤品。'}, {'title': '减肥指数', 'level': '一颗星', 'desc': '天气闷热，坚持室内低强度运动。'}, {'title': '血糖指数', 'level': '易波动', 'desc': '血糖易波动，注意监测。'}, {'title': '穿衣指数', 'level': '炎热', 'desc': '建议穿短衫、短裤等清凉夏季服装。'}, {'title': '洗车指数', 'level': '不宜', 'desc': '有雨，雨水和泥水会弄脏爱车。'}, {'title': '空气污染扩散指数', 'level': '良', 'desc': '气象条件有利于空气污染物扩散。'}]}, {'day': '02日（星期五）', 'date': '2021-07-02', 'week': '星期五', 'wea': '中雨转小雨', 'wea_img': 'yu', 'wea_day': '中雨', 'wea_day_img': 'yu', 'wea_night': '小雨', 'wea_night_img': 'yu', 'tem': '31℃', 'tem1': '31℃', 'tem2': '26℃', 'humidity': '', 'visibility': '', 'pressure': '', 'win': ['南风', '南风'], 'win_speed': '&lt;3级', 'win_meter': '', 'sunrise': '05:57', 'sunset': '19:34', 'air': '22', 'air_level': '优', 'air_tips': '', 'alarm': {'alarm_type': '', 'alarm_level': '', 'alarm_content': ''}, 'hours': [{'hours': '08时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '28', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '11时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '29', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '14时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '30', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '17时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '29', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '20时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '28', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '23时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '27', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '02时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '26', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '05时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '26', 'win': '东风', 'win_speed': '&lt;3级'}], 'index': [{'title': '紫外线指数', 'level': '最弱', 'desc': '辐射弱，涂擦SPF8-12防晒护肤品。'}, {'title': '减肥指数', 'level': '一颗星', 'desc': '天气闷热，坚持室内低强度运动。'}, {'title': '血糖指数', 'level': '易波动', 'desc': '血糖易波动，注意监测。'}, {'title': '穿衣指数', 'level': '热', 'desc': '适合穿T恤、短薄外套等夏季服装。'}, {'title': '洗车指数', 'level': '不宜', 'desc': '有雨，雨水和泥水会弄脏爱车。'}, {'title': '空气污染扩散指数', 'level': '良', 'desc': '气象条件有利于空气污染物扩散。'}]}, {'day': '03日（星期六）', 'date': '2021-07-03', 'week': '星期六', 'wea': '中雨转阵雨', 'wea_img': 'yu', 'wea_day': '中雨', 'wea_day_img': 'yu', 'wea_night': '阵雨', 'wea_night_img': 'yu', 'tem': '32℃', 'tem1': '32℃', 'tem2': '26℃', 'humidity': '', 'visibility': '', 'pressure': '', 'win': ['南风', '南风'], 'win_speed': '&lt;3级', 'win_meter': '', 'sunrise': '05:58', 'sunset': '19:34', 'air': '26', 'air_level': '优', 'air_tips': '', 'alarm': {'alarm_type': '', 'alarm_level': '', 'alarm_content': ''}, 'hours': [{'hours': '08时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '27', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '11时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '29', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '14时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '30', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '17时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '31', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '20时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '28', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '23时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '27', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '02时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '26', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '05时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '26', 'win': '东南风', 'win_speed': '&lt;3级'}], 'index': [{'title': '紫外线指数', 'level': '最弱', 'desc': '辐射弱，涂擦SPF8-12防晒护肤品。'}, {'title': '减肥指数', 'level': '一颗星', 'desc': '天气闷热，坚持室内低强度运动。'}, {'title': '血糖指数', 'level': '易波动', 'desc': '血糖易波动，注意监测。'}, {'title': '穿衣指数', 'level': '热', 'desc': '适合穿T恤、短薄外套等夏季服装。'}, {'title': '洗车指数', 'level': '不宜', 'desc': '有雨，雨水和泥水会弄脏爱车。'}, {'title': '空气污染扩散指数', 'level': '良', 'desc': '气象条件有利于空气污染物扩散。'}]}, {'day': '04日（星期日）', 'date': '2021-07-04', 'week': '星期日', 'wea': '阵雨转多云', 'wea_img': 'yun', 'wea_day': '阵雨', 'wea_day_img': 'yu', 'wea_night': '多云', 'wea_night_img': 'yun', 'tem': '33℃', 'tem1': '33℃', 'tem2': '26℃', 'humidity': '', 'visibility': '', 'pressure': '', 'win': ['南风', '南风'], 'win_speed': '&lt;3级', 'win_meter': '', 'sunrise': '05:58', 'sunset': '19:34', 'air': '25', 'air_level': '优', 'air_tips': '', 'alarm': {'alarm_type': '', 'alarm_level': '', 'alarm_content': ''}, 'hours': [{'hours': '08时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '28', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '11时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '30', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '14时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '31', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '17时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '31', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '20时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '29', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '23时', 'wea': '阴', 'wea_img': 'yin', 'tem': '28', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '02时', 'wea': '多云', 'wea_img': 'yun', 'tem': '26', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '05时', 'wea': '多云', 'wea_img': 'yun', 'tem': '28', 'win': '南风', 'win_speed': '&lt;3级'}], 'index': [{'title': '紫外线指数', 'level': '最弱', 'desc': '辐射弱，涂擦SPF8-12防晒护肤品。'}, {'title': '减肥指数', 'level': '一颗星', 'desc': '天气闷热，坚持室内低强度运动。'}, {'title': '血糖指数', 'level': '易波动', 'desc': '血糖易波动，注意监测。'}, {'title': '穿衣指数', 'level': '热', 'desc': '适合穿T恤、短薄外套等夏季服装。'}, {'title': '洗车指数', 'level': '不宜', 'desc': '有雨，雨水和泥水会弄脏爱车。'}, {'title': '空气污染扩散指数', 'level': '优', 'desc': '气象条件非常有利于空气污染物扩散。'}]}, {'day': '05日（星期一）', 'date': '2021-07-05', 'week': '星期一', 'wea': '阵雨转多云', 'wea_img': 'yun', 'wea_day': '阵雨', 'wea_day_img': 'yu', 'wea_night': '多云', 'wea_night_img': 'yun', 'tem': '33℃', 'tem1': '33℃', 'tem2': '25℃', 'humidity': '', 'visibility': '', 'pressure': '', 'win': ['南风', '南风'], 'win_speed': '&lt;3级', 'win_meter': '', 'sunrise': '05:59', 'sunset': '19:34', 'air': '21', 'air_level': '优', 'air_tips': '', 'alarm': {'alarm_type': '', 'alarm_level': '', 'alarm_content': ''}, 'hours': [{'hours': '08时', 'wea': '多云', 'wea_img': 'yun', 'tem': '30', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '11时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '31', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '14时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '32', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '17时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '30', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '20时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '28', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '23时', 'wea': '阴', 'wea_img': 'yin', 'tem': '27', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '02时', 'wea': '多云', 'wea_img': 'yun', 'tem': '26', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '05时', 'wea': '多云', 'wea_img': 'yun', 'tem': '25', 'win': '南风', 'win_speed': '&lt;3级'}], 'index': [{'title': '紫外线指数', 'level': '最弱', 'desc': '辐射弱，涂擦SPF8-12防晒护肤品。'}, {'title': '减肥指数', 'level': '一颗星', 'desc': '天气闷热，坚持室内低强度运动。'}, {'title': '血糖指数', 'level': '易波动', 'desc': '血糖易波动，注意监测。'}, {'title': '穿衣指数', 'level': '热', 'desc': '适合穿T恤、短薄外套等夏季服装。'}, {'title': '洗车指数', 'level': '不宜', 'desc': '有雨，雨水和泥水会弄脏爱车。'}, {'title': '空气污染扩散指数', 'level': '优', 'desc': '气象条件非常有利于空气污染物扩散。'}]}]}</t>
+          <t>{'cityid': '101300301', 'city': '柳州', 'cityEn': 'liuzhou', 'country': '中国', 'countryEn': 'China', 'update_time': '2022-02-26 21:20:52', 'data': [{'day': '26日（星期六）', 'date': '2022-02-26', 'week': '星期六', 'wea': '阴转多云', 'wea_img': 'yun', 'wea_day': '阴', 'wea_day_img': 'yin', 'wea_night': '多云', 'wea_night_img': 'yun', 'tem': '12℃', 'tem1': '17℃', 'tem2': '9℃', 'humidity': '72%', 'visibility': '30km', 'pressure': '990', 'win': ['西北风', '北风'], 'win_speed': '&lt;3级', 'win_meter': '2km/h', 'sunrise': '07:07', 'sunset': '18:43', 'air': '92', 'air_level': '良', 'air_tips': '空气好，可以外出活动，除极少数对污染物特别敏感的人群以外，对公众没有危害！', 'alarm': {'alarm_type': '', 'alarm_level': '', 'alarm_content': ''}, 'hours': [{'hours': '21时', 'wea': '多云', 'wea_img': 'yun', 'tem': '11', 'win': '西北风', 'win_speed': '&lt;3级'}, {'hours': '22时', 'wea': '多云', 'wea_img': 'yun', 'tem': '11', 'win': '北风', 'win_speed': '&lt;3级'}, {'hours': '23时', 'wea': '晴', 'wea_img': 'qing', 'tem': '11', 'win': '北风', 'win_speed': '&lt;3级'}, {'hours': '00时', 'wea': '晴', 'wea_img': 'qing', 'tem': '10', 'win': '西北风', 'win_speed': '&lt;3级'}, {'hours': '01时', 'wea': '晴', 'wea_img': 'qing', 'tem': '10', 'win': '西北风', 'win_speed': '&lt;3级'}, {'hours': '02时', 'wea': '晴', 'wea_img': 'qing', 'tem': '9', 'win': '西北风', 'win_speed': '&lt;3级'}, {'hours': '03时', 'wea': '晴', 'wea_img': 'qing', 'tem': '8', 'win': '西北风', 'win_speed': '&lt;3级'}, {'hours': '04时', 'wea': '晴', 'wea_img': 'qing', 'tem': '8', 'win': '西北风', 'win_speed': '&lt;3级'}, {'hours': '05时', 'wea': '晴', 'wea_img': 'qing', 'tem': '8', 'win': '北风', 'win_speed': '&lt;3级'}, {'hours': '06时', 'wea': '晴', 'wea_img': 'qing', 'tem': '8', 'win': '北风', 'win_speed': '&lt;3级'}, {'hours': '07时', 'wea': '晴', 'wea_img': 'qing', 'tem': '8', 'win': '西北风', 'win_speed': '&lt;3级'}], 'index': [{'title': '紫外线指数', 'level': '很强', 'desc': '涂擦SPF20以上，PA++护肤品，避强光。'}, {'title': '减肥指数', 'level': '三颗星', 'desc': '春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。'}, {'title': '血糖指数', 'level': '不易波动', 'desc': '天气条件好，血糖不易波动，可适时进行户外锻炼。'}, {'title': '穿衣指数', 'level': '较冷', 'desc': '建议着厚外套加毛衣等服装。'}, {'title': '洗车指数', 'level': '适宜', 'desc': '天气较好，适合擦洗汽车。'}, {'title': '空气污染扩散指数', 'level': '中', 'desc': '易感人群应适当减少室外活动。'}]}, {'day': '27日（星期日）', 'date': '2022-02-27', 'week': '星期日', 'wea': '多云', 'wea_img': 'yun', 'wea_day': '多云', 'wea_day_img': 'yun', 'wea_night': '多云', 'wea_night_img': 'yun', 'tem': '19℃', 'tem1': '19℃', 'tem2': '9℃', 'humidity': '', 'visibility': '', 'pressure': '', 'win': ['南风', '南风'], 'win_speed': '&lt;3级', 'win_meter': '', 'sunrise': '07:06', 'sunset': '18:43', 'air': '51', 'air_level': '良', 'air_tips': '', 'alarm': {'alarm_type': '', 'alarm_level': '', 'alarm_content': ''}, 'hours': [{'hours': '08时', 'wea': '晴', 'wea_img': 'qing', 'tem': '9', 'win': '西北风', 'win_speed': '&lt;3级'}, {'hours': '09时', 'wea': '晴', 'wea_img': 'qing', 'tem': '11', 'win': '西风', 'win_speed': '&lt;3级'}, {'hours': '10时', 'wea': '晴', 'wea_img': 'qing', 'tem': '12', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '11时', 'wea': '晴', 'wea_img': 'qing', 'tem': '13', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '12时', 'wea': '晴', 'wea_img': 'qing', 'tem': '15', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '13时', 'wea': '晴', 'wea_img': 'qing', 'tem': '16', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '14时', 'wea': '晴', 'wea_img': 'qing', 'tem': '18', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '15时', 'wea': '多云', 'wea_img': 'yun', 'tem': '18', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '16时', 'wea': '多云', 'wea_img': 'yun', 'tem': '18', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '17时', 'wea': '多云', 'wea_img': 'yun', 'tem': '18', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '18时', 'wea': '多云', 'wea_img': 'yun', 'tem': '17', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '19时', 'wea': '多云', 'wea_img': 'yun', 'tem': '16', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '20时', 'wea': '多云', 'wea_img': 'yun', 'tem': '15', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '21时', 'wea': '多云', 'wea_img': 'yun', 'tem': '15', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '22时', 'wea': '晴', 'wea_img': 'qing', 'tem': '15', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '23时', 'wea': '晴', 'wea_img': 'qing', 'tem': '15', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '00时', 'wea': '晴', 'wea_img': 'qing', 'tem': '15', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '01时', 'wea': '晴', 'wea_img': 'qing', 'tem': '15', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '02时', 'wea': '晴', 'wea_img': 'qing', 'tem': '15', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '03时', 'wea': '晴', 'wea_img': 'qing', 'tem': '14', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '04时', 'wea': '晴', 'wea_img': 'qing', 'tem': '14', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '05时', 'wea': '晴', 'wea_img': 'qing', 'tem': '14', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '06时', 'wea': '晴', 'wea_img': 'qing', 'tem': '13', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '07时', 'wea': '晴', 'wea_img': 'qing', 'tem': '13', 'win': '南风', 'win_speed': '&lt;3级'}], 'index': [{'title': '紫外线指数', 'level': '中等', 'desc': '涂擦SPF大于15、PA+防晒护肤品。'}, {'title': '减肥指数', 'level': '五颗星', 'desc': '春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。'}, {'title': '血糖指数', 'level': '不易波动', 'desc': '天气条件好，血糖不易波动，可适时进行户外锻炼。'}, {'title': '穿衣指数', 'level': '较舒适', 'desc': '建议穿薄外套或牛仔裤等服装。'}, {'title': '洗车指数', 'level': '较适宜', 'desc': '无雨且风力较小，易保持清洁度。'}, {'title': '空气污染扩散指数', 'level': '中', 'desc': '易感人群应适当减少室外活动。'}]}, {'day': '28日（星期一）', 'date': '2022-02-28', 'week': '星期一', 'wea': '小雨', 'wea_img': 'yu', 'wea_day': '小雨', 'wea_day_img': 'yu', 'wea_night': '小雨', 'wea_night_img': 'yu', 'tem': '19℃', 'tem1': '19℃', 'tem2': '13℃', 'humidity': '', 'visibility': '', 'pressure': '', 'win': ['南风', '南风'], 'win_speed': '&lt;3级转3-4级', 'win_meter': '', 'sunrise': '07:05', 'sunset': '18:44', 'air': '37', 'air_level': '优', 'air_tips': '', 'alarm': {'alarm_type': '', 'alarm_level': '', 'alarm_content': ''}, 'hours': [{'hours': '08时', 'wea': '晴', 'wea_img': 'qing', 'tem': '13', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '09时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '14', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '10时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '15', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '11时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '16', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '12时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '17', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '13时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '18', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '14时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '18', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '15时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '18', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '16时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '18', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '17时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '18', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '18时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '18', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '19时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '18', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '20时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '18', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '21时', 'wea': '阴', 'wea_img': 'yin', 'tem': '17', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '22时', 'wea': '阴', 'wea_img': 'yin', 'tem': '17', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '23时', 'wea': '阴', 'wea_img': 'yin', 'tem': '17', 'win': '南风', 'win_speed': '3-4级'}, {'hours': '00时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '17', 'win': '南风', 'win_speed': '3-4级'}, {'hours': '01时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '17', 'win': '南风', 'win_speed': '3-4级'}, {'hours': '02时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '17', 'win': '南风', 'win_speed': '3-4级'}, {'hours': '03时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '16', 'win': '南风', 'win_speed': '3-4级'}, {'hours': '04时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '15', 'win': '南风', 'win_speed': '3-4级'}, {'hours': '05时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '14', 'win': '南风', 'win_speed': '3-4级'}, {'hours': '06时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '14', 'win': '南风', 'win_speed': '3-4级'}, {'hours': '07时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '13', 'win': '南风', 'win_speed': '3-4级'}], 'index': [{'title': '紫外线指数', 'level': '最弱', 'desc': '辐射弱，涂擦SPF8-12防晒护肤品。'}, {'title': '减肥指数', 'level': '一颗星', 'desc': '春天快来了，雨天坚持室内运动吧。'}, {'title': '血糖指数', 'level': '不易波动', 'desc': '天气条件不易引起血糖波动。'}, {'title': '穿衣指数', 'level': '较舒适', 'desc': '建议穿薄外套或牛仔裤等服装。'}, {'title': '洗车指数', 'level': '不宜', 'desc': '有雨，雨水和泥水会弄脏爱车。'}, {'title': '空气污染扩散指数', 'level': '良', 'desc': '气象条件有利于空气污染物扩散。'}]}, {'day': '01日（星期二）', 'date': '2022-03-01', 'week': '星期二', 'wea': '小雨转多云', 'wea_img': 'yun', 'wea_day': '小雨', 'wea_day_img': 'yu', 'wea_night': '多云', 'wea_night_img': 'yun', 'tem': '18℃', 'tem1': '18℃', 'tem2': '10℃', 'humidity': '', 'visibility': '', 'pressure': '', 'win': ['北风', '北风'], 'win_speed': '3-4级转&lt;3级', 'win_meter': '', 'sunrise': '07:04', 'sunset': '18:44', 'air': '37', 'air_level': '优', 'air_tips': '', 'alarm': {'alarm_type': '', 'alarm_level': '', 'alarm_content': ''}, 'hours': [{'hours': '08时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '13', 'win': '南风', 'win_speed': '3-4级'}, {'hours': '09时', 'wea': '阴', 'wea_img': 'yin', 'tem': '14', 'win': '西南风', 'win_speed': '3-4级'}, {'hours': '10时', 'wea': '阴', 'wea_img': 'yin', 'tem': '15', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '11时', 'wea': '阴', 'wea_img': 'yin', 'tem': '17', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '12时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '17', 'win': '西南风', 'win_speed': '&lt;3级'}, {'hours': '13时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '17', 'win': '西南风', 'win_speed': '3-4级'}, {'hours': '14时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '17', 'win': '西风', 'win_speed': '3-4级'}, {'hours': '15时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '15', 'win': '西风', 'win_speed': '3-4级'}, {'hours': '16时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '15', 'win': '西北风', 'win_speed': '3-4级'}, {'hours': '17时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '14', 'win': '北风', 'win_speed': '3-4级'}, {'hours': '18时', 'wea': '阴', 'wea_img': 'yin', 'tem': '13', 'win': '西南风', 'win_speed': '3-4级'}, {'hours': '19时', 'wea': '多云', 'wea_img': 'yun', 'tem': '12', 'win': '东南风', 'win_speed': '3-4级'}, {'hours': '20时', 'wea': '多云', 'wea_img': 'yun', 'tem': '12', 'win': '北风', 'win_speed': '3-4级'}, {'hours': '23时', 'wea': '多云', 'wea_img': 'yun', 'tem': '12', 'win': '东风', 'win_speed': '&lt;3级'}, {'hours': '02时', 'wea': '多云', 'wea_img': 'yun', 'tem': '13', 'win': '北风', 'win_speed': '&lt;3级'}, {'hours': '05时', 'wea': '多云', 'wea_img': 'yun', 'tem': '11', 'win': '南风', 'win_speed': '&lt;3级'}], 'index': [{'title': '紫外线指数', 'level': '最弱', 'desc': '辐射弱，涂擦SPF8-12防晒护肤品。'}, {'title': '减肥指数', 'level': '一颗星', 'desc': '风雨相伴，坚持室内运动吧。'}, {'title': '血糖指数', 'level': '不易波动', 'desc': '天气条件不易引起血糖波动。'}, {'title': '穿衣指数', 'level': '较冷', 'desc': '建议着厚外套加毛衣等服装。'}, {'title': '洗车指数', 'level': '不宜', 'desc': '有雨，雨水和泥水会弄脏爱车。'}, {'title': '空气污染扩散指数', 'level': '良', 'desc': '气象条件有利于空气污染物扩散。'}]}, {'day': '02日（星期三）', 'date': '2022-03-02', 'week': '星期三', 'wea': '多云转小雨', 'wea_img': 'yun', 'wea_day': '多云', 'wea_day_img': 'yun', 'wea_night': '小雨', 'wea_night_img': 'yu', 'tem': '20℃', 'tem1': '20℃', 'tem2': '10℃', 'humidity': '', 'visibility': '', 'pressure': '', 'win': ['北风', '南风'], 'win_speed': '&lt;3级', 'win_meter': '', 'sunrise': '07:03', 'sunset': '18:45', 'air': '51', 'air_level': '良', 'air_tips': '', 'alarm': {'alarm_type': '', 'alarm_level': '', 'alarm_content': ''}, 'hours': [{'hours': '08时', 'wea': '晴', 'wea_img': 'qing', 'tem': '11', 'win': '北风', 'win_speed': '&lt;3级'}, {'hours': '11时', 'wea': '晴', 'wea_img': 'qing', 'tem': '14', 'win': '东风', 'win_speed': '&lt;3级'}, {'hours': '14时', 'wea': '晴', 'wea_img': 'qing', 'tem': '19', 'win': '东北风', 'win_speed': '&lt;3级'}, {'hours': '17时', 'wea': '晴', 'wea_img': 'qing', 'tem': '17', 'win': '东风', 'win_speed': '&lt;3级'}, {'hours': '20时', 'wea': '晴', 'wea_img': 'qing', 'tem': '16', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '23时', 'wea': '多云', 'wea_img': 'yun', 'tem': '16', 'win': '东北风', 'win_speed': '&lt;3级'}, {'hours': '02时', 'wea': '中雨', 'wea_img': 'yu', 'tem': '16', 'win': '东北风', 'win_speed': '&lt;3级'}, {'hours': '05时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '14', 'win': '东北风', 'win_speed': '&lt;3级'}], 'index': [{'title': '紫外线指数', 'level': '很强', 'desc': '涂擦SPF20以上，PA++护肤品，避强光。'}, {'title': '减肥指数', 'level': '五颗星', 'desc': '春天不减肥，夏天徒伤悲。天气较舒适，快去运动吧。'}, {'title': '血糖指数', 'level': '不易波动', 'desc': '天气条件好，血糖不易波动，可适时进行户外锻炼。'}, {'title': '穿衣指数', 'level': '较舒适', 'desc': '建议穿薄外套或牛仔裤等服装。'}, {'title': '洗车指数', 'level': '不宜', 'desc': '有雨，雨水和泥水会弄脏爱车。'}, {'title': '空气污染扩散指数', 'level': '中', 'desc': '易感人群应适当减少室外活动。'}]}, {'day': '03日（星期四）', 'date': '2022-03-03', 'week': '星期四', 'wea': '小雨', 'wea_img': 'yu', 'wea_day': '小雨', 'wea_day_img': 'yu', 'wea_night': '小雨', 'wea_night_img': 'yu', 'tem': '21℃', 'tem1': '21℃', 'tem2': '14℃', 'humidity': '', 'visibility': '', 'pressure': '', 'win': ['南风', '南风'], 'win_speed': '&lt;3级', 'win_meter': '', 'sunrise': '07:02', 'sunset': '18:45', 'air': '27', 'air_level': '优', 'air_tips': '', 'alarm': {'alarm_type': '', 'alarm_level': '', 'alarm_content': ''}, 'hours': [{'hours': '08时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '14', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '11时', 'wea': '阴', 'wea_img': 'yin', 'tem': '16', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '14时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '19', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '17时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '19', 'win': '东风', 'win_speed': '&lt;3级'}, {'hours': '20时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '20', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '23时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '17', 'win': '东风', 'win_speed': '&lt;3级'}, {'hours': '02时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '16', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '05时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '16', 'win': '东风', 'win_speed': '&lt;3级'}], 'index': [{'title': '紫外线指数', 'level': '最弱', 'desc': '辐射弱，涂擦SPF8-12防晒护肤品。'}, {'title': '减肥指数', 'level': '一颗星', 'desc': '春天快来了，雨天坚持室内运动吧。'}, {'title': '血糖指数', 'level': '较易波动', 'desc': '血糖较易波动，注意监测。'}, {'title': '穿衣指数', 'level': '较舒适', 'desc': '建议穿薄外套或牛仔裤等服装。'}, {'title': '洗车指数', 'level': '不宜', 'desc': '有雨，雨水和泥水会弄脏爱车。'}, {'title': '空气污染扩散指数', 'level': '良', 'desc': '气象条件有利于空气污染物扩散。'}]}, {'day': '04日（星期五）', 'date': '2022-03-04', 'week': '星期五', 'wea': '小雨', 'wea_img': 'yu', 'wea_day': '小雨', 'wea_day_img': 'yu', 'wea_night': '小雨', 'wea_night_img': 'yu', 'tem': '20℃', 'tem1': '20℃', 'tem2': '14℃', 'humidity': '', 'visibility': '', 'pressure': '', 'win': ['南风', '北风'], 'win_speed': '&lt;3级', 'win_meter': '', 'sunrise': '07:02', 'sunset': '18:46', 'air': '17', 'air_level': '优', 'air_tips': '', 'alarm': {'alarm_type': '', 'alarm_level': '', 'alarm_content': ''}, 'hours': [{'hours': '08时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '16', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '11时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '17', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '14时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '18', 'win': '南风', 'win_speed': '&lt;3级'}, {'hours': '17时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '18', 'win': '东风', 'win_speed': '&lt;3级'}, {'hours': '20时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '18', 'win': '东南风', 'win_speed': '&lt;3级'}, {'hours': '23时', 'wea': '阴', 'wea_img': 'yin', 'tem': '17', 'win': '西北风', 'win_speed': '&lt;3级'}, {'hours': '02时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '17', 'win': '北风', 'win_speed': '&lt;3级'}, {'hours': '05时', 'wea': '小雨', 'wea_img': 'yu', 'tem': '16', 'win': '东风', 'win_speed': '&lt;3级'}], 'index': [{'title': '紫外线指数', 'level': '最弱', 'desc': '辐射弱，涂擦SPF8-12防晒护肤品。'}, {'title': '减肥指数', 'level': '一颗星', 'desc': '春天快来了，雨天坚持室内运动吧。'}, {'title': '血糖指数', 'level': '不易波动', 'desc': '天气条件不易引起血糖波动。'}, {'title': '穿衣指数', 'level': '较舒适', 'desc': '建议穿薄外套或牛仔裤等服装。'}, {'title': '洗车指数', 'level': '不宜', 'desc': '有雨，雨水和泥水会弄脏爱车。'}, {'title': '空气污染扩散指数', 'level': '良', 'desc': '气象条件有利于空气污染物扩散。'}]}]}</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>Pass</t>
+          <t>Fail</t>
         </is>
       </c>
     </row>
